--- a/Definicion y administracion de requerimientos de software/Plantillas/PL CheckList defectos.xlsx
+++ b/Definicion y administracion de requerimientos de software/Plantillas/PL CheckList defectos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Definicion y administracion de requerimientos de software/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70C2A0-0977-1543-B1FA-2121EE7B07B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="21580" windowHeight="8660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defectos" sheetId="1" r:id="rId1"/>
@@ -30,9 +31,6 @@
     <t>METFOR</t>
   </si>
   <si>
-    <t>CICLO I</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD PILOTO DE COLOMBIA</t>
   </si>
   <si>
@@ -114,6 +112,9 @@
   </si>
   <si>
     <t>Aprueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO </t>
   </si>
 </sst>
 </file>
@@ -904,40 +905,40 @@
   <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -945,16 +946,16 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -963,7 +964,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -972,37 +973,37 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="E13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="F13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="G13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="H13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="34" t="s">
+      <c r="J13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -1013,7 +1014,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -1024,7 +1025,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -1035,7 +1036,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="24"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1046,7 +1047,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1057,7 +1058,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1068,7 +1069,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="24"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1079,7 +1080,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="24"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1090,7 +1091,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1101,7 +1102,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1112,7 +1113,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1123,7 +1124,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1134,7 +1135,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1145,7 +1146,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1156,7 +1157,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1167,7 +1168,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1178,7 +1179,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1189,7 +1190,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1200,7 +1201,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1211,7 +1212,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1222,7 +1223,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1233,7 +1234,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1244,7 +1245,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1255,7 +1256,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1266,7 +1267,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1277,7 +1278,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1288,7 +1289,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1299,7 +1300,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1310,7 +1311,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1321,7 +1322,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1332,7 +1333,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1343,7 +1344,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1354,7 +1355,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1365,7 +1366,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1376,7 +1377,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1387,7 +1388,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1398,7 +1399,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1409,7 +1410,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1420,7 +1421,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1431,7 +1432,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1442,7 +1443,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1453,7 +1454,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1464,7 +1465,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1475,7 +1476,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1512,17 +1513,17 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -1530,7 +1531,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -1538,7 +1539,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -1546,7 +1547,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -1554,7 +1555,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -1562,7 +1563,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -1570,9 +1571,9 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -1580,7 +1581,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
@@ -1588,7 +1589,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
@@ -1596,7 +1597,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -1604,7 +1605,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -1612,7 +1613,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -1620,9 +1621,9 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
@@ -1630,7 +1631,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -1638,7 +1639,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -1646,7 +1647,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -1654,7 +1655,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -1662,7 +1663,7 @@
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -1670,9 +1671,9 @@
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -1680,27 +1681,27 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1708,7 +1709,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1716,7 +1717,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1724,7 +1725,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1732,7 +1733,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1740,7 +1741,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1748,7 +1749,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1756,7 +1757,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1764,7 +1765,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1772,7 +1773,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1780,7 +1781,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1788,7 +1789,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1796,7 +1797,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -1804,9 +1805,9 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
@@ -1814,7 +1815,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -1822,7 +1823,7 @@
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -1830,7 +1831,7 @@
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -1838,7 +1839,7 @@
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -1846,7 +1847,7 @@
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -1854,7 +1855,7 @@
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -1862,9 +1863,9 @@
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
@@ -1872,7 +1873,7 @@
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -1880,7 +1881,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -1888,7 +1889,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -1896,7 +1897,7 @@
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -1904,7 +1905,7 @@
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -1912,9 +1913,9 @@
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
@@ -1922,21 +1923,21 @@
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -1944,7 +1945,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1952,7 +1953,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -1960,7 +1961,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -1968,7 +1969,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -1976,7 +1977,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
